--- a/excelFile/parameter.xlsx
+++ b/excelFile/parameter.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>参数项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -44,6 +40,42 @@
   </si>
   <si>
     <t>参数6</t>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -389,68 +421,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
